--- a/2_数据查询/数据库.xlsx
+++ b/2_数据查询/数据库.xlsx
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>855140</v>
+        <v>875509</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45446.94438657408</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45751.76399305555</v>
+        <v>45753.71474537037</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>806620</v>
+        <v>828310</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45446.95048611111</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45751.76409722222</v>
+        <v>45753.7147800926</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -613,13 +613,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5208</v>
+        <v>5331</v>
       </c>
       <c r="D6" t="n">
         <v>360005</v>
       </c>
       <c r="E6" t="n">
-        <v>390594</v>
+        <v>390686</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5388</v>
+        <v>5491</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>45441.06680555556</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45751.76350694444</v>
+        <v>45753.71137731482</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>142241</v>
+        <v>144194</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>45436.77818287037</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45751.76381944444</v>
+        <v>45753.71484953703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42574</v>
+        <v>43176</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>751930</v>
+        <v>767480</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4197</v>
+        <v>4272</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1147413</v>
+        <v>1172420</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>43050</v>
+        <v>43360</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>45445.02042824074</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45751.76052083333</v>
+        <v>45753.70847222222</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>101326</v>
+        <v>103058</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>45436.78017361111</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45751.76436342593</v>
+        <v>45753.71484953703</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1271715</v>
+        <v>1299412</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>45440.79601851852</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45751.76436342593</v>
+        <v>45753.7150925926</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>519451</v>
+        <v>528760</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>25934</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45751.75399305556</v>
+        <v>45753.71063657408</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>135254</v>
+        <v>137082</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>45436.77818287037</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45751.76459490741</v>
+        <v>45753.7153125</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>417186</v>
+        <v>417362</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>45412.00993055556</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45751.70628472222</v>
+        <v>45752.75266203703</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>135249</v>
+        <v>137077</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>45463.71837962963</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45751.76458333333</v>
+        <v>45753.71528935185</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>135257</v>
+        <v>137085</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>45436.77818287037</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45751.76436342593</v>
+        <v>45753.71527777778</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>61113</v>
+        <v>62012</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>45556.99037037037</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45751.75479166667</v>
+        <v>45753.71503472222</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>

--- a/2_数据查询/数据库.xlsx
+++ b/2_数据查询/数据库.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$CA$28</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:CA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -468,12 +468,372 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column Names</t>
+          <t>Column_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column Types</t>
+          <t>Column_2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Column_3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Column_4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Column_5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Column_6</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Column_7</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Column_8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Column_9</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Column_10</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Column_11</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Column_12</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Column_13</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Column_14</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Column_15</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Column_16</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Column_17</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Column_18</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Column_19</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Column_20</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Column_21</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Column_22</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Column_23</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Column_24</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Column_25</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Column_26</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Column_27</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Column_28</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Column_29</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Column_30</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_31</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Column_32</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Column_33</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Column_34</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Column_35</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Column_36</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Column_37</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_38</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Column_39</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Column_40</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Column_41</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Column_42</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Column_43</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Column_44</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Column_45</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Column_46</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_47</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Column_48</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Column_49</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Column_50</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Column_51</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Column_52</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Column_53</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Column_54</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Column_55</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Column_56</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_57</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Column_58</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Column_59</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Column_60</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Column_61</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Column_62</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Column_63</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_64</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Column_65</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Column_66</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Column_67</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Column_68</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Column_69</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Column_70</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Column_71</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Column_72</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Column_73</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Column_74</t>
         </is>
       </c>
     </row>
@@ -489,55 +849,281 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>875509</v>
+        <v>932909</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45446.94438657408</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45753.71474537037</v>
+        <v>45759.86607638889</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>id, site_id, bill_no, member_id, member_name, category, wallet_category, money, before_money, after_money, venue_id, status, check_user, check_remark, created_at, updated_at, top_id, member_grade, applicant, applicant_remark, flow_limit, issue_type, flow_times, flow_amount, activity_type, receive_mode, activity_id, activity_title</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>bigint, int, varchar(255), int, varchar(255), int, int, double, double, double, varchar(255), int, varchar(255), varchar(255), datetime, datetime, int, varchar(255), varchar(255), varchar(255), int, int, int, double, int, int, int, varchar(255)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>wallet_category</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>before_money</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>after_money</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>check_user</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>check_remark</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>member_grade</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>applicant</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>applicant_remark</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>flow_limit</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>issue_type</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>flow_times</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>flow_amount</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>activity_type</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>receive_mode</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>activity_id</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>activity_title</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>activity_1000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>member_dividend_manual_logs</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>828310</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45446.95048611111</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45753.7147800926</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>id, site_id, bill_no, member_id, member_name, category, wallet_category, real_money, money, venue_id, receive_status, status, created_at, receive_at, updated_at, top_name, top_id, member_grade, flow_limit, flow_times, flow_times_str, flow_amount, activity_id, activity_type, receive_type, applicant, channel_code, channel_name, remark, applicant_remark, check_user, check_remark, admin_remark, confirm_at, applicant_at, is_delete, expired_time, expired, balance_limit</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>int, int, varchar(255), int, varchar(255), int, tinyint, double, double, int, int, int, datetime, datetime, datetime, varchar(255), int, int, int, float, varchar(255), float, int, int, int, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), datetime, datetime, int, varchar(255), double, int</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -547,59 +1133,575 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>operation_activity_info</t>
+          <t>member_dividend_manual_logs</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>441</v>
+        <v>882105</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45445</v>
+        <v>45446.95048611111</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45786</v>
+        <v>45759.86607638889</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>id, site_id, title, type, activity_start_time, activity_end_time, display_start_time, display_end_time, status, sort, participation, support_client, activity_tag, display_form, app_topic_link, web_topic_link, special_discount, cycle, activity_venues, level_requirement, share_picture, web_list_picture, app_list_picture, activity_list_picture, web_main_picture, web_background_picture, app_tag_picture, h5_main_picture, activity_money, donation_ratio, donation_max_money, flow_requirements, web_detail, app_detail, latest, is_automatic, is_delete, created_at, updated_at, created_by, updated_by, activity_class, is_permanent, count_cycle, redemption_period, if_odds, effective_odds, hk_odds, red_point_status, red_point_frequency, content_display_form, recharge_type, pc_relative_url, h5_relative_url, content_form, member_requirement, virtual_activity_venues, h5_background_picture</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>int, int, varchar(255), tinyint, datetime, datetime, datetime, datetime, tinyint, tinyint, tinyint, tinyint, varchar(10), varchar(255), varchar(255), varchar(255), tinyint, tinyint, varchar(1024), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), text, text, varchar(255), tinyint, tinyint, datetime, datetime, varchar(255), varchar(255), tinyint, tinyint, tinyint, tinyint, tinyint, float, float, tinyint, tinyint, int, int, varchar(255), varchar(255), int, varchar(20), varchar(255), varchar(255)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>wallet_category</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>real_money</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>receive_status</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>receive_at</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>top_name</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>member_grade</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>flow_limit</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>flow_times</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>flow_times_str</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>flow_amount</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>activity_id</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>activity_type</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>receive_type</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>applicant</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>channel_code</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>channel_name</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>applicant_remark</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>check_user</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>check_remark</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>admin_remark</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>confirm_at</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>applicant_at</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>is_delete</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>expired_time</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>expired</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>balance_limit</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>agent_1000</t>
+          <t>activity_1000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>agent_department</t>
+          <t>operation_activity_info</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>382</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>390541</v>
+        <v>458</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>id, site_id, pid, group_name, level, create_by, create_at, update_by, update_at, sort</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>int, int, int, varchar(255), tinyint, int, datetime, int, datetime, int</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>activity_start_time</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>activity_end_time</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>display_start_time</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>display_end_time</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>sort</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>support_client</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>activity_tag</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>display_form</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>app_topic_link</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>web_topic_link</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>special_discount</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>activity_venues</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>level_requirement</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>share_picture</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>web_list_picture</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>app_list_picture</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>activity_list_picture</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>web_main_picture</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>web_background_picture</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>app_tag_picture</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>h5_main_picture</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>activity_money</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>donation_ratio</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>donation_max_money</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>flow_requirements</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>web_detail</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>app_detail</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>latest</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>is_automatic</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>is_delete</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>activity_class</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>is_permanent</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>count_cycle</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>redemption_period</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>if_odds</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>effective_odds</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>hk_odds</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>red_point_status</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>red_point_frequency</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>content_display_form</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>recharge_type</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>pc_relative_url</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>h5_relative_url</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>content_form</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>member_requirement</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>virtual_activity_venues</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>h5_background_picture</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -609,28 +1711,132 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>agent_dept_member</t>
+          <t>agent_department</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5331</v>
+        <v>388</v>
       </c>
       <c r="D6" t="n">
-        <v>360005</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>390686</v>
+        <v>390541</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>id, site_id, dept_id, star_status, invite_code, member_id, agent_name, remark, created_by, created_at, updated_by, updated_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>int, int, int, tinyint(1), varchar(255), int, varchar(255), varchar(255), int, datetime, int, datetime</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>group_name</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>create_by</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>create_at</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>update_by</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>update_at</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>sort</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -640,28 +1846,140 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>agent_dept_user</t>
+          <t>agent_dept_member</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1510</v>
+        <v>5685</v>
       </c>
       <c r="D7" t="n">
-        <v>120001</v>
+        <v>360005</v>
       </c>
       <c r="E7" t="n">
-        <v>390195</v>
+        <v>390686</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>id, site_id, dept_id, parent_dept_id, user_name, user_id, real_permission, create_by, create_at, update_by, update_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>int, int, int, varchar(255), varchar(255), int, int, int, datetime, int, datetime</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dept_id</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>star_status</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>invite_code</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>agent_name</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -671,28 +1989,136 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>member_agent</t>
+          <t>agent_dept_user</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5491</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45441.06680555556</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45753.71137731482</v>
+        <v>1527</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>390195</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>id, site_id, agent_name, sys_type, member_id, top_id, invite_code, created_at, updated_at, private_domain, develop_name, maintain_name, remark, first_login, payment_password, payment_password_salt, agent_status, qq_type, agent_level, agent_ids, agent_model, add_sub_authority, total_agent_id, total_agent_name, rebate_plan_id, unlimited_id, flygram_display, flygram, gmail, status, wallet_money, app_id, xs_s17, xs_s18, gmail_mask, flygram_mask, secret_security, phone_imei, device_type, aurora_alias, commission_frozen, frozen_remark, disable_remark, agent_type, email_desensitization</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>int, int, varchar(255), tinyint, int, int, varchar(30), datetime, datetime, varchar(255), varchar(255), varchar(255), varchar(255), tinyint, varchar(255), varchar(255), tinyint, tinyint, tinyint, varchar(255), tinyint, tinyint, int, varchar(255), int, int, tinyint, varchar(255), varchar(255), tinyint, float, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), tinyint, varchar(255), tinyint, varchar(255), varchar(255), varchar(4), varchar(255)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>dept_id</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>parent_dept_id</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>real_permission</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>create_by</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>create_at</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>update_by</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>update_at</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -702,55 +2128,447 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>member_assign_log</t>
+          <t>member_agent</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>144194</v>
+        <v>5892</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45436.77818287037</v>
+        <v>45441.06680555556</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45753.71484953703</v>
+        <v>45759.86215277778</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, member_name, old_top_id, old_top_name, new_top_id, new_top_name, ip, before_charge, before_bet, before_profit, before_balance, before_withdraw, remark, user_id, user_name, created_at, updated_at, before_grade</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>int, int, int, varchar(255), int, varchar(255), int, varchar(255), varchar(255), decimal(16,2), decimal(16,2), decimal(16,2), decimal(16,2), decimal(16,2), varchar(255), int, varchar(255), datetime, datetime, int</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>agent_name</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>invite_code</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>private_domain</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>develop_name</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>maintain_name</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>first_login</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>payment_password</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>payment_password_salt</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>agent_status</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>qq_type</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>agent_level</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>agent_ids</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>agent_model</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>add_sub_authority</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>total_agent_id</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>total_agent_name</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>rebate_plan_id</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>unlimited_id</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>flygram_display</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>flygram</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>gmail</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>wallet_money</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>app_id</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>xs_s17</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>xs_s18</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>gmail_mask</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>flygram_mask</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>secret_security</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>phone_imei</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>device_type</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>aurora_alias</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>commission_frozen</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>frozen_remark</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>disable_remark</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>agent_type</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>email_desensitization</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bigdata</t>
+          <t>agent_1000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dept_organization</t>
+          <t>member_assign_log</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>151519</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45436.77818287037</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45759.86662037037</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>id, platform_code, dept_id, group_name, dept_top_mbr_count, sort, dept_pid, level, site_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>int, varchar(255), int, varchar(255), int, int, int, int, int</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>old_top_id</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>old_top_name</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>new_top_id</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>new_top_name</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>before_charge</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>before_bet</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>before_profit</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>before_balance</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>before_withdraw</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>before_grade</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -760,7 +2578,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>game_record_month_report</t>
+          <t>dept_organization</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -770,14 +2588,114 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>id, site_id, statics_month, game_type, venue_id, venue_name, bet_member_count, bet_count, bet_amount, valid_bet_amount, company_win_lose, advance_settle_amount, netbet_amount_ratio, bet_member_count_settle, bet_count_settle, bet_amount_settle, valid_bet_amount_settle, company_win_lose_settle, advance_settle_amount_settle, netbet_amount_ratio_settle</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>int, int, varchar(50), int, int, varchar(50), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(50), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(50)</t>
-        </is>
-      </c>
+          <t>platform_code</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>dept_id</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>group_name</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>dept_top_mbr_count</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>sort</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>dept_pid</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -787,32 +2705,168 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>game_record_report</t>
+          <t>game_record_month_report</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43176</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024-05-31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>id, site_id, statics_date, game_type, venue_id, venue_name, bet_member_count, bet_count, bet_amount, valid_bet_amount, company_win_lose, advance_settle_amount, netbet_amount_ratio, bet_member_count_settle, bet_count_settle, bet_amount_settle, valid_bet_amount_settle, company_win_lose_settle, advance_settle_amount_settle, netbet_amount_ratio_settle</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>int, int, varchar(50), int, int, varchar(50), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(50), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(50)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>statics_month</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>game_type</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>venue_name</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>bet_count</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>advance_settle_amount</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>netbet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>bet_count_settle</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>advance_settle_amount_settle</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>netbet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -822,32 +2876,176 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>member_daily_statics</t>
+          <t>game_record_report</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>767480</v>
+        <v>45573</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>id, site_id, statics_date, member_id, member_name, top_id, deposit_count, deposit, draw, draw_count, promo, rebate, score_adjust, deposit_adjust_amount, bets, profit, company_win_lose, advance_settle_amount, created_at, updated_at, sys_type, register_time, register_source, register_url, area_code, area_name, first_deposit_amount, first_deposit_time, first_bet_amount, agent_commission, top_name, risk_adjust, all_bets, is_new, win_loss_adjust_amount, valid_bet_amount, bet_amount, net_amount, early_settle_amount, system_adjust_amount, deposit_fee, withdraw_fee, gift_amount</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>int, int, varchar(20), int, varchar(255), int, int, decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), datetime, datetime, int, datetime, varchar(255), varchar(255), varchar(20), varchar(100), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), varchar(255), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>statics_date</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>game_type</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>venue_name</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>bet_count</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>advance_settle_amount</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>netbet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>bet_count_settle</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>advance_settle_amount_settle</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>netbet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -857,32 +3055,268 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>platform_daily_report</t>
+          <t>member_daily_statics</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4272</v>
+        <v>814989</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>id, statics_date, site_id, top_code, deposit_adjust_more_amount, deposit_adjust_less_amount, recharge_amount, drawing_amount, register_member_count, first_recharge_member_count, first_recharge_amount, first_valid_recharge_member_count, first_valid_recharge_amount, recharge_member_count, drawing_member_count, bet_member_count, valid_bet_amount, bet_amount, net_amount, dividend_amount, rebate_amount, per_commission_amount, team_commission_amount, early_settle_net_amount, deposit_adjust_amount, first_recharge_register_ratio, per_first_recharge, recharge_drawing_sub, drawing_recharge_ratio, net_bet_amount_ratio, company_win_lose, group_profit, group_amount_ratio, venue_fee, bet_member_count_settle, valid_bet_amount_settle, bet_amount_settle, net_amount_settle, early_settle_net_amount_settle, company_win_lose_settle, net_bet_amount_ratio_settle, venue_fee_settle, gift_amount, deposit_fee, group_profit_settle, withdraw_fee, site_rates</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>int, varchar(255), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, int, decimal(16,4), int, decimal(16,4), int, int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), varchar(20), varchar(20), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>statics_date</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>deposit_count</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>deposit</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>draw_count</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>promo</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>rebate</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>score_adjust</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>deposit_adjust_amount</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>bets</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>advance_settle_amount</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>register_time</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>register_source</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>register_url</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>area_code</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>first_deposit_amount</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>first_deposit_time</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>first_bet_amount</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>agent_commission</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>top_name</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>risk_adjust</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>all_bets</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>is_new</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>win_loss_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>early_settle_amount</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>system_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>deposit_fee</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>withdraw_fee</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>gift_amount</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -892,24 +3326,284 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>platform_month_report</t>
+          <t>platform_daily_report</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+        <v>4473</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>id, statics_month, site_id, top_code, deposit_adjust_more_amount, deposit_adjust_less_amount, recharge_amount, drawing_amount, register_member_count, first_recharge_member_count, first_recharge_amount, first_valid_recharge_member_count, first_valid_recharge_amount, recharge_member_count, drawing_member_count, bet_member_count, valid_bet_amount, bet_amount, net_amount, dividend_amount, rebate_amount, per_commission_amount, team_commission_amount, early_settle_net_amount, deposit_adjust_amount, first_recharge_register_ratio, per_first_recharge, recharge_drawing_sub, drawing_recharge_ratio, net_bet_amount_ratio, company_win_lose, group_profit, group_amount_ratio, venue_fee, bet_member_count_settle, valid_bet_amount_settle, bet_amount_settle, net_amount_settle, early_settle_net_amount_settle, company_win_lose_settle, net_bet_amount_ratio_settle, venue_fee_settle, gift_amount, group_profit_settle, deposit_fee, withdraw_fee, site_rates</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>int, varchar(255), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, int, decimal(16,4), int, decimal(16,4), int, int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), varchar(20), varchar(20), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4)</t>
-        </is>
-      </c>
+          <t>statics_date</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>top_code</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>deposit_adjust_more_amount</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>deposit_adjust_less_amount</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>recharge_amount</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>drawing_amount</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>register_member_count</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>first_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>first_recharge_amount</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_amount</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>recharge_member_count</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>drawing_member_count</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>dividend_amount</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>rebate_amount</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>per_commission_amount</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>team_commission_amount</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>deposit_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>first_recharge_register_ratio</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>per_first_recharge</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>recharge_drawing_sub</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>drawing_recharge_ratio</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>group_profit</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>group_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>venue_fee</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>venue_fee_settle</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>gift_amount</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>deposit_fee</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>group_profit_settle</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>withdraw_fee</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>site_rates</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -919,32 +3613,276 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>top_daily_report</t>
+          <t>platform_month_report</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1172420</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0001-01-01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2025-12-31</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>id, site_id, invite_code, agent_name, statics_date, top_id, sys_type, register_member_count, first_recharge_member_count, first_recharge_amount, first_valid_recharge_member_count, first_valid_recharge_amount, recharge_member_count, drawing_member_count, recharge_amount, drawing_amount, agent_drawing_amount, deposit_adjust_more_amount, deposit_adjust_less_amount, bet_member_count, bet_amount, valid_bet_amount, net_amount, dividend_amount, agent_dividend_amount, rebate_amount, per_commission_amount, team_commission_amount, win_loss_adjust_amount, system_adjust_amount, early_settle_net_amount, deposit_adjust_amount, venue_amount, other_adjust_amount, score_adjust, first_recharge_register_ratio, per_first_recharge, net_bet_amount_ratio, company_win_lose, company_win_lose_settle, net_bet_amount_ratio_settle, bet_member_count_settle, bet_amount_settle, valid_bet_amount_settle, net_amount_settle, early_settle_net_amount_settle, venue_amount_settle, repair_net_profit, promotion_dividend, deposit_fee, withdraw_fee, update_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>int, int, varchar(50), varchar(255), varchar(255), int, int, int, int, decimal(16,4), int, decimal(16,4), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), varchar(20), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), datetime</t>
-        </is>
-      </c>
+          <t>statics_month</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>top_code</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>deposit_adjust_more_amount</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>deposit_adjust_less_amount</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>recharge_amount</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>drawing_amount</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>register_member_count</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>first_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>first_recharge_amount</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_amount</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>recharge_member_count</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>drawing_member_count</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>dividend_amount</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>rebate_amount</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>per_commission_amount</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>team_commission_amount</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>deposit_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>first_recharge_register_ratio</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>per_first_recharge</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>recharge_drawing_sub</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>drawing_recharge_ratio</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>group_profit</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>group_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>venue_fee</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>venue_fee_settle</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>gift_amount</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>group_profit_settle</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>deposit_fee</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>withdraw_fee</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>site_rates</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -954,90 +3892,754 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>top_month_report</t>
+          <t>top_daily_report</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>43360</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>45445.02042824074</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45753.70847222222</v>
+        <v>1212040</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0001-01-01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>id, site_id, invite_code, agent_name, statics_month, top_id, sys_type, register_member_count, first_recharge_member_count, first_recharge_amount, first_valid_recharge_member_count, first_valid_recharge_amount, recharge_member_count, drawing_member_count, recharge_amount, drawing_amount, agent_drawing_amount, deposit_adjust_more_amount, deposit_adjust_less_amount, bet_member_count, bet_amount, valid_bet_amount, net_amount, dividend_amount, agent_dividend_amount, rebate_amount, per_commission_amount, team_commission_amount, win_loss_adjust_amount, system_adjust_amount, early_settle_net_amount, deposit_adjust_amount, venue_amount, other_adjust_amount, score_adjust, first_recharge_register_ratio, per_first_recharge, net_bet_amount_ratio, company_win_lose, company_win_lose_settle, net_bet_amount_ratio_settle, bet_member_count_settle, bet_amount_settle, valid_bet_amount_settle, net_amount_settle, early_settle_net_amount_settle, venue_amount_settle, repair_net_profit, update_at, deposit_fee, withdraw_fee</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>int, int, varchar(50), varchar(255), varchar(50), int, int, int, int, decimal(16,4), int, decimal(16,4), int, int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), varchar(20), decimal(16,4), varchar(20), decimal(16,4), decimal(16,4), varchar(20), int, decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), decimal(16,4), datetime, decimal(16,4), decimal(16,4)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>invite_code</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>agent_name</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>statics_date</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>register_member_count</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>first_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>first_recharge_amount</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_amount</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>recharge_member_count</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>drawing_member_count</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>recharge_amount</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>drawing_amount</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>agent_drawing_amount</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>deposit_adjust_more_amount</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>deposit_adjust_less_amount</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>dividend_amount</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>agent_dividend_amount</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>rebate_amount</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>per_commission_amount</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>team_commission_amount</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>win_loss_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>system_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>deposit_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>venue_amount</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>other_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>score_adjust</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>first_recharge_register_ratio</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>per_first_recharge</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>venue_amount_settle</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>repair_net_profit</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>promotion_dividend</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>deposit_fee</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>withdraw_fee</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>update_at</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>control_1000</t>
+          <t>bigdata</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sys_dict_value</t>
+          <t>top_month_report</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1537</v>
+        <v>43807</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45377.7144675926</v>
+        <v>45445.02042824074</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45683.82431712963</v>
+        <v>45759.86472222222</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>id, dict_id, dict_value, code, remark, del_flag, initial_flag, status, created_at, updated_at, ext1, ext2, dict_code, category</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>int, int, varchar(255), varchar(255), varchar(255), tinyint, tinyint, tinyint, datetime, datetime, varchar(255), varchar(255), varchar(255), tinyint</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>invite_code</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>agent_name</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>statics_month</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>register_member_count</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>first_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>first_recharge_amount</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_member_count</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>first_valid_recharge_amount</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>recharge_member_count</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>drawing_member_count</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>recharge_amount</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>drawing_amount</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>agent_drawing_amount</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>deposit_adjust_more_amount</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>deposit_adjust_less_amount</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>bet_member_count</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>dividend_amount</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>agent_dividend_amount</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>rebate_amount</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>per_commission_amount</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>team_commission_amount</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>win_loss_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>system_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>deposit_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>venue_amount</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>other_adjust_amount</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>score_adjust</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>first_recharge_register_ratio</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>per_first_recharge</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>company_win_lose</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>company_win_lose_settle</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>net_bet_amount_ratio_settle</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>bet_member_count_settle</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>valid_bet_amount_settle</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>early_settle_net_amount_settle</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>venue_amount_settle</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>repair_net_profit</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>update_at</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>deposit_fee</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>withdraw_fee</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>finance_1000</t>
+          <t>control_1000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>finance_member_level</t>
+          <t>sys_dict_value</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>103058</v>
+        <v>1544</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45436.78017361111</v>
+        <v>45377.7144675926</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45753.71484953703</v>
+        <v>45755.70178240741</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, member_name, member_credit_rating, member_credit_level, created_at, updated_at, lock_status, total_recharge, total_record</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>bigint, int, int, varchar(255), varchar(255), varchar(255), datetime, datetime, tinyint, decimal(16,4), decimal(16,4)</t>
-        </is>
-      </c>
+          <t>dict_id</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>dict_value</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>del_flag</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>initial_flag</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>ext1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>ext2</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>dict_code</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1047,28 +4649,136 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>finance_pay_records</t>
+          <t>finance_member_level</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1299412</v>
+        <v>109485</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45440.79601851852</v>
+        <v>45436.78017361111</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45753.7150925926</v>
+        <v>45759.86575231481</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, member_username, member_real_name, member_grade, top_id, bill_no, typay_order_id, order_amount, pay_amount, pay_seq, rebate_amount, score_amount, category, pay_type, flow_ratio, pay_status, client_type, client_ip, desposit_name, recipient_name, recipient_bank, recipient_address, recipient_account, recipient_code, recipient_bank_name, pay_result, confirm_at, admin_id, created_at, updated_at, pay_channel, pay_channel_index, remark, paid_amount, paid_usdt_amount, order_status, transfer_account, deposit_account, finance_remark, pay_time, operator, complete_time, order_source, merchant_no, data_route, pay_operator, protocol, expected_usdt, exchange_usdt, app_id, xs_s1, xs_s2, xs_s3, xs_s8, xs_s11, xs_s12, xs_s13, xs_s15, credit_rating, credit_level, reward_rate, reward_amount, reminder, request_source, device_no, is_first_deposit, device_no_success_count, client_ip_success_count, client_ip_location, client_type_x</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>bigint, int, bigint, varchar(255), varchar(255), int, bigint, varchar(255), varchar(255), decimal(16,4), decimal(16,4), int, decimal(16,4), decimal(10,4), int, int, decimal(16,4), int, int, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), datetime, int, datetime, datetime, varchar(255), int, varchar(255), decimal(16,4), decimal(16,4), int, varchar(255), varchar(255), varchar(255), int, varchar(255), int, int, varchar(255), varchar(255), varchar(255), varchar(255), decimal(16,4), decimal(16,4), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), decimal(16,4), decimal(16,4), int, int, varchar(255), tinyint, int, int, varchar(255), varchar(255)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>member_credit_rating</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>member_credit_level</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>lock_status</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>total_recharge</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>total_record</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1078,28 +4788,380 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>finance_withdraw</t>
+          <t>finance_pay_records</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>528760</v>
+        <v>1388281</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>25934</v>
+        <v>45440.79601851852</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45753.71063657408</v>
+        <v>45759.86680555555</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, member_username, phone, member_grade, client_type, client_ip, bill_no, typay_order_id, amount, usdt_amount, preview_deposit, preview_deposit_time, preview_success_num, bank_code, bank_card, bank_realname, category, draw_status, risk_admin_id, risk_confirm_at, draw_comment, confirm_at, top_id, created_at, updated_at, bank_address, auto_risk_result, risk_comment, denial_reason, denial_content, hold_reason, hold_at, pay_channel, withdraw_type, pay_channel_index, payment_time, order_status, send_count, bank_created_at, risk_admin_name, hold_name, member_real_name, risk_operater, finance_remark, merchant_no, data_route, device_no, risk_receive_at, protocol, exchange_rate, expected_digiccy, handling_fee, xs_s0, xs_s1, xs_s2, xs_s3, xs_s4, xs_s8, credit_rating, credit_level, reminder, request_source, sys_type, sys_type_info, payment_group_name, pre_withdraw, operator, pay_admin_id, reward_amount, transfer_member_id, transfer_member_name, risk_c_admin_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>bigint, int, int, varchar(255), varchar(255), int, int, varchar(255), varchar(255), varchar(255), decimal(16,4), decimal(16,4), decimal(16,4), datetime, int, varchar(255), varchar(255), varchar(255), int, int, int, datetime, varchar(255), datetime, int, datetime, datetime, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), datetime, varchar(255), int, int, int, int, int, datetime, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), datetime, varchar(255), decimal(16,4), decimal(16,4), decimal(16,4), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), int, int, int, varchar(255), varchar(255), int, varchar(255), int, decimal(16,4), int, varchar(50), int</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>member_username</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>member_real_name</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>member_grade</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>typay_order_id</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>order_amount</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>pay_amount</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>pay_seq</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>rebate_amount</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>score_amount</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>pay_type</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>flow_ratio</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>pay_status</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>client_type</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>client_ip</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>desposit_name</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>recipient_name</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>recipient_bank</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>recipient_address</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>recipient_account</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>recipient_code</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>recipient_bank_name</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>pay_result</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>confirm_at</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>admin_id</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>pay_channel</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>pay_channel_index</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>remark</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>paid_amount</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>paid_usdt_amount</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>order_status</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>transfer_account</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>deposit_account</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>finance_remark</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>pay_time</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>operator</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>complete_time</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>order_source</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>merchant_no</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>data_route</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>pay_operator</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>protocol</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>expected_usdt</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>exchange_usdt</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>app_id</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>xs_s1</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>xs_s2</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>xs_s3</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>xs_s8</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>xs_s11</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>xs_s12</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>xs_s13</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>xs_s15</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>credit_rating</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>credit_level</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>reward_rate</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>reward_amount</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>reminder</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>request_source</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>device_no</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>is_first_deposit</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>device_no_success_count</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>client_ip_success_count</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>client_ip_location</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>client_type_x</t>
+        </is>
+      </c>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1109,90 +5171,818 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>member_wallet</t>
+          <t>finance_withdraw</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>137082</v>
+        <v>560924</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45436.77818287037</v>
+        <v>25934</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45753.7153125</v>
+        <v>45759.85945601852</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>id, site_id, available_money, freeze_money, agent_money, agent_freezed_money, valet_money, sys_type, sys_status, created_at, updated_at, member_id, usdt_money, usdt_freezed_money</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>bigint, int, decimal(18,2), decimal(18,2), decimal(18,2), decimal(18,2), decimal(18,2), int, int, datetime, datetime, int, decimal(18,2), decimal(18,2)</t>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>member_username</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>member_grade</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>client_type</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>client_ip</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>typay_order_id</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>usdt_amount</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>preview_deposit</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>preview_deposit_time</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>preview_success_num</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>bank_code</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>bank_card</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>bank_realname</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>draw_status</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>risk_admin_id</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>risk_confirm_at</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>draw_comment</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>confirm_at</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>bank_address</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>auto_risk_result</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>risk_comment</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>denial_reason</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>denial_content</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>hold_reason</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>hold_at</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>pay_channel</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>withdraw_type</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>pay_channel_index</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>payment_time</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>order_status</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>send_count</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>bank_created_at</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>risk_admin_name</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>hold_name</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>member_real_name</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>risk_operater</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>finance_remark</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>merchant_no</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>data_route</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>device_no</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>risk_receive_at</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>protocol</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>exchange_rate</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>expected_digiccy</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>handling_fee</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>xs_s0</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>xs_s1</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>xs_s2</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>xs_s3</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>xs_s4</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>xs_s8</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>credit_rating</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>credit_level</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>reminder</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>request_source</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>sys_type_info</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>payment_group_name</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>pre_withdraw</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>operator</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>pay_admin_id</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>reward_amount</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>transfer_member_id</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
+          <t>transfer_member_name</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>risk_c_admin_id</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ods_bet</t>
+          <t>finance_1000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>game_bet_records</t>
+          <t>member_wallet</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>101000</v>
+        <v>143879</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45536.75950231482</v>
+        <v>45436.77818287037</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45562.91056712963</v>
+        <v>45759.86732638889</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>id, venue_bill_no, venue_name, venue_id, bet_amount, net_amount, valid_bet_amount, bet_time, result, preFlag, bill_no, flag, game_type, game_code, game_name, member_id, member_name, venue_username, handicap, odds_type, odds, game_play_info, settle_time, start_time, source_url, top_id, updated_at, created_at, es_index_name, early_settle_flag, buyback_amount, cashout_amount, remaining_bet_amount, cashout_return_amount, buyback_netAmount, site_id, game_user_ip, agent_type, match_id, play_info, is_many_settled, resettled_sum, bet_opportunity, user_register_time, terminal_type, member_source</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>varchar(50), varchar(50), varchar(50), int, decimal(20,6), decimal(20,6), decimal(20,6), datetime, varchar(255), tinyint, varchar(50), tinyint, tinyint, varchar(10), varchar(50), int, varchar(50), varchar(50), varchar(50), varchar(10), decimal(8,3), text, datetime, datetime, varchar(255), int, datetime, datetime, varchar(255), tinyint, decimal(20,6), decimal(20,6), decimal(20,6), decimal(20,6), decimal(20,6), int, varchar(45), varchar(20), varchar(100), text, tinyint, decimal(20,6), tinyint, datetime, varchar(20), tinyint</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>available_money</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>freeze_money</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>agent_money</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>agent_freezed_money</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>valet_money</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>sys_type</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>sys_status</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>usdt_money</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>usdt_freezed_money</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>u1_1000</t>
+          <t>ods_bet</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>game_fanshui_subcate</t>
+          <t>game_bet_records</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>417362</v>
+        <v>101000</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45412.00993055556</v>
+        <v>45536.75950231482</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45752.75266203703</v>
+        <v>45562.91056712963</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>id, site_id, parent_id, venue_id, code, name, rate, created_at, updated_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>int, int, int, int, varchar(255), varchar(255), float, datetime, datetime</t>
-        </is>
-      </c>
+          <t>venue_bill_no</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>venue_name</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bet_amount</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>net_amount</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>valid_bet_amount</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>bet_time</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>preFlag</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>game_type</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>game_code</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>game_name</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>venue_username</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>handicap</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>odds_type</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>odds</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>game_play_info</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>settle_time</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>start_time</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>source_url</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>es_index_name</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>early_settle_flag</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>buyback_amount</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>cashout_amount</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>remaining_bet_amount</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>cashout_return_amount</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>buyback_netAmount</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>game_user_ip</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>agent_type</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>match_id</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>play_info</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>is_many_settled</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>resettled_sum</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>bet_opportunity</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>user_register_time</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>terminal_type</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>member_source</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1202,24 +5992,128 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>game_venue_subrate</t>
+          <t>game_fanshui_subcate</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>565884</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45412.00993055556</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45759.8558449074</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>id, site_id, venue_id, name, code_info, commission_rate, status, is_delete, created_at, updated_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>int, int, int, varchar(10), varchar(20), float, int, int, datetime, datetime</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>parent_id</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1229,28 +6123,128 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>member_info</t>
+          <t>game_venue_subrate</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>137077</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45463.71837962963</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45753.71528935185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>id, site_id, name, avatar, sex, password, salt, status, top_id, top_name, is_agent, birthday, area_code, nick_name, tag_id, last_login_ip, register_device_id, last_login_device_id, register_ip, last_login_time, source_url, invite_code, code_source, register_device, login_device, address_cipher, register_type, register_source_name, register_source_code, app_id, phone_desensitization, real_name_desensitization, email_desensitization, register_ip_cipher, register_ip_desensitization, last_login_ip_cipher, last_login_ip_desensitization, phone_home_desensitization, xs_s0, xs_s1, xs_s5, tags_name, tags, vip_grade, login_auth, phone_realname_check, svip, provinces_cipher, created_at, updated_at</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>int, int, varchar(255), varchar(255), int, varchar(255), varchar(255), int, int, varchar(255), tinyint, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), datetime, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), int, varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), varchar(255), int, int, tinyint(1), int, varchar(255), timestamp, timestamp</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>venue_id</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>code_info</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>commission_rate</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>is_delete</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1260,28 +6254,292 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>member_info_change</t>
+          <t>member_info</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>137085</v>
+        <v>143875</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45436.77818287037</v>
+        <v>45463.71837962963</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45753.71527777778</v>
+        <v>45759.86737268518</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, total_recharge, total_record, vip_grade, svip, credit_level, credit_grade, vip_grade_change_time, credit_level_change_time, credit_grade_change_time, day_withdrawal_counts, day_withdrawal_money, updated_at, created_at, lost_sign_pop_time, svip_grade_change_time</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>int, int, int, decimal(16,4), decimal(16,4), int, varchar(2), int, int, datetime, datetime, datetime, int, decimal(16,4), datetime, datetime, datetime, datetime</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>avatar</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>top_id</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>top_name</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>is_agent</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>area_code</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>nick_name</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>tag_id</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>last_login_ip</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>register_device_id</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>last_login_device_id</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>register_ip</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>last_login_time</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>source_url</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>invite_code</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>code_source</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>register_device</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>login_device</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>address_cipher</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>register_type</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>register_source_name</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>register_source_code</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>app_id</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>phone_desensitization</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>real_name_desensitization</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>email_desensitization</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>register_ip_cipher</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>register_ip_desensitization</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>last_login_ip_cipher</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>last_login_ip_desensitization</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>phone_home_desensitization</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>xs_s0</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>xs_s1</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>xs_s5</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>tags_name</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>vip_grade</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>login_auth</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>phone_realname_check</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>svip</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>provinces_cipher</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1291,31 +6549,167 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>member_open_forbid_record</t>
+          <t>member_info_change</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>62012</v>
+        <v>143883</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45556.99037037037</v>
+        <v>45436.77818287037</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45753.71503472222</v>
+        <v>45759.86736111111</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>id, site_id, member_id, admin_name, created_at, remark, remark_type, attachments, status, client_flag, updated_at, updated_by</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>int, int, int, varchar(255), datetime, varchar(255), tinyint, varchar(255), tinyint(1), tinyint, datetime, varchar(255)</t>
-        </is>
-      </c>
+          <t>site_id</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>total_recharge</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>total_record</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>vip_grade</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>svip</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>credit_level</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>credit_grade</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>vip_grade_change_time</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>credit_level_change_time</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>credit_grade_change_time</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>day_withdrawal_counts</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>day_withdrawal_money</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>lost_sign_pop_time</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>svip_grade_change_time</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G28"/>
+  <autoFilter ref="A1:CA28"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>